--- a/assets/excel/format_inport_pegawai - Copy.xlsx
+++ b/assets/excel/format_inport_pegawai - Copy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="185">
   <si>
     <t>Nama Pegawai</t>
   </si>
@@ -304,13 +304,280 @@
   </si>
   <si>
     <t>Tenaga Kontrak</t>
+  </si>
+  <si>
+    <t>Dr. Asbaruddin, S.TP.,M.M.,M.Eng</t>
+  </si>
+  <si>
+    <t>Hamdizal, S.Pd</t>
+  </si>
+  <si>
+    <t>Dra. Aminah Thaib</t>
+  </si>
+  <si>
+    <t>Sherry Marlisa, S.Pd, M.Pd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulaiman, SE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurhadisah, SE </t>
+  </si>
+  <si>
+    <t>Abd. Kadir, S,Sos</t>
+  </si>
+  <si>
+    <t>Hafni, SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zulhijjah.S, S.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halmahera, S. Kom </t>
+  </si>
+  <si>
+    <t>Badri Kamal, ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rina Zahara, SE.Ak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosna Dewi, S.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ira Sahri, S.Pd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wardah, SE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erman, SE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aida Tuti, SE </t>
+  </si>
+  <si>
+    <t>Elfia, S.Pd.I, MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safridawati, SE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Yunita, SE, M.Pd </t>
+  </si>
+  <si>
+    <t>Afrineni, ST, MT</t>
+  </si>
+  <si>
+    <t>Rahmat Sidik, ST, M.Sc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sardimanto, S.Pd, M.Pd </t>
+  </si>
+  <si>
+    <t>Syaifullah</t>
+  </si>
+  <si>
+    <t>Ramli</t>
+  </si>
+  <si>
+    <t>Dedy Aznadi, S.Pd</t>
+  </si>
+  <si>
+    <t>Zulfahmi, S.Pd.,M.Pd</t>
+  </si>
+  <si>
+    <t>Yasmin, SE</t>
+  </si>
+  <si>
+    <t>Ferryati, S.Sos</t>
+  </si>
+  <si>
+    <t>Devi Novita, SE</t>
+  </si>
+  <si>
+    <t>Dian Ahzaliza</t>
+  </si>
+  <si>
+    <t>19761012 200504 1001</t>
+  </si>
+  <si>
+    <t>19730719 200003 1 003</t>
+  </si>
+  <si>
+    <t>19650715 199502 2 001</t>
+  </si>
+  <si>
+    <t>19690818 199801 2 001</t>
+  </si>
+  <si>
+    <t>19650301 198503 1 003</t>
+  </si>
+  <si>
+    <t>19650725 199403 2 001</t>
+  </si>
+  <si>
+    <t>19650915 198602 1 002</t>
+  </si>
+  <si>
+    <t>19651231 199403 2 022</t>
+  </si>
+  <si>
+    <t>19741231 200212 2 006</t>
+  </si>
+  <si>
+    <t>19760606 200112 2 002</t>
+  </si>
+  <si>
+    <t>19790424 200604 1 004</t>
+  </si>
+  <si>
+    <t>19790505 200604 2 005</t>
+  </si>
+  <si>
+    <t>19830907 200904 2 009</t>
+  </si>
+  <si>
+    <t>19710710 199303 2 002</t>
+  </si>
+  <si>
+    <t>19711231 200604 2 010</t>
+  </si>
+  <si>
+    <t>19730410 200604 1 004</t>
+  </si>
+  <si>
+    <t>19731231 200212 2 003</t>
+  </si>
+  <si>
+    <t>19741114 200904 2 001</t>
+  </si>
+  <si>
+    <t>19770717 200901 2 009</t>
+  </si>
+  <si>
+    <t>19800605 201001 2 025</t>
+  </si>
+  <si>
+    <t>19840406 200604 2 003</t>
+  </si>
+  <si>
+    <t>19860722 201403 1 001</t>
+  </si>
+  <si>
+    <t>19871025 201003 1 003</t>
+  </si>
+  <si>
+    <t>19641219 198603 1 003</t>
+  </si>
+  <si>
+    <t>19790405 201404 1 002</t>
+  </si>
+  <si>
+    <t>19831217 201212 1 002</t>
+  </si>
+  <si>
+    <t>19861009 201003 1 001</t>
+  </si>
+  <si>
+    <t>19670322 199403 2 003</t>
+  </si>
+  <si>
+    <t>19660928 198602 2 001</t>
+  </si>
+  <si>
+    <t>19841001 201001 2 047</t>
+  </si>
+  <si>
+    <t>19830506 200801 1 021</t>
+  </si>
+  <si>
+    <t>IV/a</t>
+  </si>
+  <si>
+    <t>IV/b</t>
+  </si>
+  <si>
+    <t>III/d</t>
+  </si>
+  <si>
+    <t>III/c</t>
+  </si>
+  <si>
+    <t>III/b</t>
+  </si>
+  <si>
+    <t>II/a</t>
+  </si>
+  <si>
+    <t>III/a</t>
+  </si>
+  <si>
+    <t>Kepala Bidang Pembinaan SMK</t>
+  </si>
+  <si>
+    <t>Analis Pelaksanaan Kemitraan Pendidikan Bidang Pembinaan Sekolah Menengah Kejuruan</t>
+  </si>
+  <si>
+    <t>Analis Mutu Akademik</t>
+  </si>
+  <si>
+    <t>Analis Pengembangan Peserta Didik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analis Kelembagaan Pendidikan </t>
+  </si>
+  <si>
+    <t>Pengelola Kelembagaan Pendidikan</t>
+  </si>
+  <si>
+    <t>Pengolah Data Dana Rehabilitasi Fasilitas Pendidikan</t>
+  </si>
+  <si>
+    <t>Analis Pelaksanaan Kemitraan Pendidikan</t>
+  </si>
+  <si>
+    <t>Analis Pengembangan Sistem Ujian, Tes dan Pengukuran</t>
+  </si>
+  <si>
+    <t>Analis Monitoring dan Evaluasi Dana Rehabilitasi Fasilitas Pendidikan</t>
+  </si>
+  <si>
+    <t>Analis Kurikulum dan Pembelajaran</t>
+  </si>
+  <si>
+    <t>Pengelola Peserta Didik</t>
+  </si>
+  <si>
+    <t>Analis Kompetensi Kelulusan</t>
+  </si>
+  <si>
+    <t>Analis  Kompetensi Kelulusan</t>
+  </si>
+  <si>
+    <t>Analis Pengembangan Teknologi Pendidikan</t>
+  </si>
+  <si>
+    <t>Analis Pengolahan Hasil Ujian</t>
+  </si>
+  <si>
+    <t>Pengadministrasi Kesiswaan</t>
+  </si>
+  <si>
+    <t>Pengadministrasi Umum</t>
+  </si>
+  <si>
+    <t>Arsiparis Ahli Madya</t>
+  </si>
+  <si>
+    <t>PNS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +599,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -373,7 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -405,6 +677,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E84" sqref="E54:E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1572,6 +1880,533 @@
       </c>
       <c r="E53" s="1" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5">
+      <c r="A54" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="49.5">
+      <c r="A55" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5">
+      <c r="A56" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5">
+      <c r="A57" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5">
+      <c r="A58" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5">
+      <c r="A59" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5">
+      <c r="A60" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="33">
+      <c r="A61" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="33">
+      <c r="A62" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="33">
+      <c r="A63" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="33">
+      <c r="A64" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5">
+      <c r="A65" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="33">
+      <c r="A66" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5">
+      <c r="A67" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.5">
+      <c r="A68" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5">
+      <c r="A69" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5">
+      <c r="A70" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.5">
+      <c r="A71" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5">
+      <c r="A72" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.5">
+      <c r="A73" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5">
+      <c r="A74" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="33">
+      <c r="A75" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5">
+      <c r="A76" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.5">
+      <c r="A77" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5">
+      <c r="A78" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.5">
+      <c r="A79" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.5">
+      <c r="A80" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.5">
+      <c r="A81" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5">
+      <c r="A82" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.5">
+      <c r="A83" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="33">
+      <c r="A84" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
